--- a/main/data/trapping_rain_water.xlsx
+++ b/main/data/trapping_rain_water.xlsx
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23.10705184936523</v>
+        <v>17.48085021972656</v>
       </c>
       <c r="D2" t="n">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.02780342102051</v>
+        <v>16.82925224304199</v>
       </c>
       <c r="D3" t="n">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20.78509330749512</v>
+        <v>17.46201515197754</v>
       </c>
       <c r="D4" t="n">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19.42992210388184</v>
+        <v>17.36998558044434</v>
       </c>
       <c r="D5" t="n">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19.12283897399902</v>
+        <v>18.92304420471191</v>
       </c>
       <c r="D6" t="n">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>

--- a/main/data/trapping_rain_water.xlsx
+++ b/main/data/trapping_rain_water.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Memory Usage (mb)</t>
+          <t>Memory Usage (bytes)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17.48085021972656</v>
+        <v>17.05098152160645</v>
       </c>
       <c r="D2" t="n">
         <v>123</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.82925224304199</v>
+        <v>16.79897308349609</v>
       </c>
       <c r="D3" t="n">
         <v>123</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17.46201515197754</v>
+        <v>17.92216300964355</v>
       </c>
       <c r="D4" t="n">
         <v>174</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17.36998558044434</v>
+        <v>18.52703094482422</v>
       </c>
       <c r="D5" t="n">
         <v>123</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18.92304420471191</v>
+        <v>17.30990409851074</v>
       </c>
       <c r="D6" t="n">
         <v>123</v>

--- a/main/data/trapping_rain_water.xlsx
+++ b/main/data/trapping_rain_water.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17.05098152160645</v>
+        <v>18.48196983337402</v>
       </c>
       <c r="D2" t="n">
         <v>123</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.79897308349609</v>
+        <v>17.48800277709961</v>
       </c>
       <c r="D3" t="n">
         <v>123</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17.92216300964355</v>
+        <v>17.56000518798828</v>
       </c>
       <c r="D4" t="n">
         <v>174</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18.52703094482422</v>
+        <v>17.66872406005859</v>
       </c>
       <c r="D5" t="n">
         <v>123</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17.30990409851074</v>
+        <v>16.72506332397461</v>
       </c>
       <c r="D6" t="n">
         <v>123</v>
